--- a/pred_ohlcv/54_21/2020-01-13 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 BCH ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>32.27579479999996</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -574,7 +574,7 @@
         <v>47.20709479999996</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>42.20709479999996</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-41.18810520000004</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-107.6233052</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-126.0573052</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-135.8873052</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-107.7422052</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-109.6688052</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-103.77907498</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-80.23920520000003</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-47.02990520000003</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-113.7512052</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-98.48814321000003</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-12.14730520000003</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-33.35970520000004</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-39.55490520000004</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-83.09100520000004</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-83.09100520000004</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-82.89720520000004</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-82.89720520000004</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-97.17740520000004</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-118.6570052</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-139.6932052000001</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-90.89500520000004</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-100.5872052</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-138.6382052</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-175.3149052000001</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-156.2949052</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-178.1372052</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-215.6165052</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-188.6420052</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-153.6623052</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-140.5590052</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-162.5957052</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-123.5486052</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-145.0824052</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-160.7449052</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-159.1266052</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-158.6266052</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-161.8599052</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-177.4232052</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-149.39790362</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-167.01190362</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-167.01190362</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-242.94390362</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-252.6551036199999</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-503.50356841</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-520.0977684100001</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-537.89096841</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-539.39096841</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-539.39096841</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-527.0669684100001</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-527.0669684100001</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-527.0605684100001</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-523.6269689700002</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-523.9896689700003</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-528.1441689700002</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-743.9373689700003</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-741.3095689700003</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-740.3237689700003</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-767.1065981400003</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-784.9601981400003</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-693.8177981400004</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-797.0431981400004</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-792.0671981400004</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-765.9315981400006</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-730.9385981400005</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-585.7203539000005</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-585.7203539000005</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-592.5427539000005</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-665.7274539000006</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-690.7427539000006</v>
       </c>
       <c r="H391">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-727.5525539000006</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-727.8817539000006</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-725.8817539000006</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-807.4855111100006</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-807.5024111100006</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-807.6132111100006</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-821.9122111100006</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-834.3617111100007</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-842.6409111100006</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-831.5106111100006</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-846.3072111100006</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-832.4740111100006</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-818.1375111100006</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-818.3375111100006</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-810.2873111100006</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-797.4497111100006</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-817.3827111100006</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-816.4589111100006</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-785.4715111100006</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-795.3463111100006</v>
       </c>
       <c r="H442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-815.5549111100006</v>
       </c>
       <c r="H443">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-814.0027111100006</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-813.7462111100007</v>
       </c>
       <c r="H445">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-785.4432111100007</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-764.3432111100007</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-761.3432111100007</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-751.3653111100006</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-755.6462111100005</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-760.2102111100005</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-771.4702111100005</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-772.5702111100005</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-772.0702111100005</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-769.0115111100005</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-774.4629111100004</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-774.4629111100004</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-791.8793111100003</v>
       </c>
       <c r="H489">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-773.5733111100003</v>
       </c>
       <c r="H490">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-691.0250346400003</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-685.4478567200003</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-688.7915567200004</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-691.7567567200003</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-683.9700101300002</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-673.9700101300002</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-663.9700101300002</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-663.8700101300002</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-707.9302446100005</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-645.6141446100005</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-645.6183446100005</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-632.6183446100005</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-617.9593446100005</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-614.3792446100005</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-644.8394446100004</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-644.8194446100005</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-689.3090446100005</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-785.8370513000004</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-792.7945513000004</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-13 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 BCH ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>52.27579479999996</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>32.27579479999996</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>43.20709479999996</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>47.20709479999996</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>42.20709479999996</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-41.18810520000004</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-107.6233052</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-126.0573052</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-135.8873052</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-107.7422052</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-109.6688052</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-103.77907498</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-80.23920520000003</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-47.02990520000003</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-113.7512052</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-98.48814321000003</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-12.14730520000003</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-33.35970520000004</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-39.55490520000004</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-83.09100520000004</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-83.09100520000004</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-82.89720520000004</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-82.89720520000004</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-97.17740520000004</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-118.6570052</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-139.6932052000001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-90.89500520000004</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-100.5872052</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-138.6382052</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-175.3149052000001</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-153.6623052</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-140.5590052</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-162.5957052</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-123.5486052</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-145.0824052</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-160.7449052</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-159.1266052</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-158.6266052</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-161.8599052</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-177.4232052</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-177.4232052</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-186.6591052</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-179.0235052</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-175.9923036199999</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-172.9297036199999</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-157.5760036199999</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-142.80330362</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-153.63130362</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-151.67930362</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-147.32730362</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-149.39790362</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-149.39790362</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-149.39790362</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-167.01190362</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-167.01190362</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-242.94390362</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-252.6551036199999</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-238.1551036199999</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-239.6550036199999</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-295.7986036199999</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-288.63210362</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-299.0158036199999</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-301.2043632199999</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-503.50356841</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-520.0977684100001</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-537.89096841</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-539.39096841</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-539.39096841</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-527.0669684100001</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-527.0669684100001</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-527.0605684100001</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-523.6269689700002</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-523.9896689700003</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-528.1441689700002</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-743.9373689700003</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-741.3095689700003</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-740.3237689700003</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-767.1065981400003</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-784.9601981400003</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-693.8177981400004</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-797.0431981400004</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-792.0671981400004</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-765.9315981400006</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-730.9385981400005</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-723.9085981400005</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-728.7374981400005</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-720.6461981400005</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-730.3721981400007</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-696.7513981400007</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-693.8043981400007</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-637.4154981400006</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-627.0017981400007</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-700.8209981400006</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-585.7203539000005</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-585.7203539000005</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-592.5427539000005</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-665.7274539000006</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-709.3650539000006</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-690.7427539000006</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-695.7427539000006</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-729.5525539000006</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-727.5525539000006</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-727.8817539000006</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-829.3141111100006</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-809.0522111100006</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-809.1483111100006</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-807.4855111100006</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-807.5024111100006</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-807.6132111100006</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-821.9122111100006</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-834.3617111100007</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-842.6409111100006</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-831.5106111100006</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-846.3072111100006</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-832.4740111100006</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-818.1375111100006</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-818.3375111100006</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-810.2873111100006</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-797.4497111100006</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-817.3827111100006</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-817.3827111100006</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-816.4589111100006</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-785.4715111100006</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-784.4466111100006</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-788.9425111100006</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-788.9425111100006</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-788.9870111100006</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-795.3463111100006</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-815.5549111100006</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-814.0027111100006</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-813.7462111100007</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-785.4432111100007</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-785.5432111100007</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-764.3432111100007</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-761.3432111100007</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-754.6346111100006</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-747.1806111100007</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-756.3316111100006</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-736.8552111100006</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-736.8552111100006</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-736.8552111100006</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-736.8552111100006</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-737.2552111100006</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-739.2552111100006</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-739.2444111100006</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-739.2444111100006</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-739.2444111100006</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-739.2444111100006</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-791.3417111100006</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-791.9088111100006</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-791.9088111100006</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-791.9088111100006</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-797.8516111100006</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-797.9696111100006</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-797.9696111100006</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-798.9696111100006</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-796.4887111100006</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-786.7303111100006</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-782.2887111100006</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-753.3653111100006</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-751.3653111100006</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-755.6462111100005</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-760.2102111100005</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-771.4702111100005</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-772.5702111100005</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-772.0702111100005</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-775.1533111100005</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-766.3345111100004</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-769.0115111100005</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-775.9401111100004</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-777.9429111100004</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-774.4629111100004</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-774.4629111100004</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-774.8793111100003</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-791.8793111100003</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-773.5733111100003</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-774.3087111100003</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-774.3087111100003</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-774.2087111100003</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-712.8061272800003</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-691.0250346400003</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-685.4478567200003</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-688.7915567200004</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-691.7567567200003</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-683.9700101300002</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-673.9700101300002</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-663.9700101300002</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-663.8700101300002</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-311.8785871400006</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-335.7440871400006</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-424.7129979100006</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-400.7885979100006</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-405.7389979100006</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-391.5461979100006</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-412.8363979100006</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-707.9302446100005</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-645.6141446100005</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-645.6183446100005</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-632.6183446100005</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-617.9593446100005</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-614.3792446100005</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-644.8394446100004</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-644.8194446100005</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-689.3090446100005</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-785.8370513000004</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-792.7945513000004</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
